--- a/ExcelPropertyManagement.xlsx
+++ b/ExcelPropertyManagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacco\School\SER416\FinalProject\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D6C801-0275-44D1-B90B-D34F8DA5AE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E0B6F2-711C-4231-9041-91E2DABE3D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="900" windowWidth="16110" windowHeight="15300" tabRatio="911" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="0" windowWidth="16110" windowHeight="15300" tabRatio="911" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="18" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -782,15 +782,6 @@
   <si>
     <t>Payment Recieved</t>
   </si>
-  <si>
-    <t>NIck Angel</t>
-  </si>
-  <si>
-    <t>MOVE OUT 4/15/2022</t>
-  </si>
-  <si>
-    <t>Rent: 4 ' 2022</t>
-  </si>
 </sst>
 </file>
 
@@ -981,7 +972,7 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1053,12 +1044,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,7 +1203,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1363,10 +1348,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2007,10 +1988,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914380C8-C1D0-4A60-82DC-17615EEB8410}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2084,23 +2065,24 @@
       </c>
       <c r="K3" s="87" t="str" cm="1">
         <f t="array" ref="K3">LOOKUP(2,1/(J:J&lt;&gt;""),J:J)</f>
-        <v>NIck Angel</v>
+        <v>Alex Zacco</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4">
-        <f>COUNTIF(A6:A65539, "&lt;&gt;")</f>
-        <v>2</v>
+        <f>COUNTIF(A6:A65537, "&lt;&gt;")</f>
+        <v>1</v>
       </c>
       <c r="D4" s="51">
-        <f>INDEX(D6:D65538, A4)</f>
-        <v>0</v>
+        <f>INDEX(D6:D65536, A4)</f>
+        <v>44620</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="50" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="50">
+        <f>INDEX(H6:H65538, A4)</f>
         <v>2500</v>
       </c>
       <c r="I4" s="53">
@@ -2169,90 +2151,68 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="98" customFormat="1">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99" t="s">
-        <v>113</v>
-      </c>
+    <row r="7" spans="1:11" s="65" customFormat="1">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
     </row>
     <row r="8" spans="1:11" s="65" customFormat="1">
-      <c r="A8" s="102">
-        <v>4</v>
-      </c>
-      <c r="B8" s="102">
-        <v>2022</v>
-      </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103">
-        <v>44666</v>
-      </c>
-      <c r="E8" s="102" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="104">
-        <v>1000</v>
-      </c>
-      <c r="G8" s="104">
-        <v>3500</v>
-      </c>
-      <c r="H8" s="104">
-        <v>2500</v>
-      </c>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102" t="s">
-        <v>143</v>
-      </c>
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
     </row>
     <row r="9" spans="1:11" s="65" customFormat="1">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-    </row>
-    <row r="10" spans="1:11" s="65" customFormat="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" spans="1:11" s="65" customFormat="1">
+      <c r="D9" s="97"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+    </row>
+    <row r="10" spans="1:11" ht="15">
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="97"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="64"/>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
-    </row>
-    <row r="12" spans="1:11" ht="15">
+      <c r="I11" s="65"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="65"/>
       <c r="B12" s="65"/>
       <c r="C12" s="65"/>
       <c r="D12" s="97"/>
       <c r="E12" s="65"/>
-      <c r="F12" s="95"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="64"/>
       <c r="H12" s="64"/>
-      <c r="I12" s="96"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="65"/>
@@ -2275,28 +2235,6 @@
       <c r="G14" s="64"/>
       <c r="H14" s="64"/>
       <c r="I14" s="65"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2309,11 +2247,11 @@
   <dimension ref="A1:M298"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D227" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D212" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2:H3"/>
       <selection pane="topRight" activeCell="H2" sqref="H2:H3"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2:H3"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2:K3"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2404,6 +2342,7 @@
         <v>78</v>
       </c>
       <c r="H4" s="50">
+        <f>INDEX(H6:H65538, A4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="53">
@@ -10678,7 +10617,7 @@
       <selection activeCell="F254" sqref="F254"/>
       <selection pane="topRight" activeCell="F254" sqref="F254"/>
       <selection pane="bottomLeft" activeCell="F254" sqref="F254"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16246,7 +16185,7 @@
       <selection activeCell="F254" sqref="F254"/>
       <selection pane="topRight" activeCell="F254" sqref="F254"/>
       <selection pane="bottomLeft" activeCell="F254" sqref="F254"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:K4"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -22593,7 +22532,7 @@
       <selection activeCell="F254" sqref="F254"/>
       <selection pane="topRight" activeCell="F254" sqref="F254"/>
       <selection pane="bottomLeft" activeCell="F254" sqref="F254"/>
-      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/ExcelPropertyManagement.xlsx
+++ b/ExcelPropertyManagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacco\School\SER416\FinalProject\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E0B6F2-711C-4231-9041-91E2DABE3D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA75CE76-1017-43E1-A29E-AB8CFEBEA74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="0" windowWidth="16110" windowHeight="15300" tabRatio="911" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="2010" windowWidth="12240" windowHeight="11850" tabRatio="911" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="18" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="149">
   <si>
     <t>Date</t>
   </si>
@@ -696,12 +696,6 @@
     <t>New Tenant</t>
   </si>
   <si>
-    <t>3602 Rocky Road</t>
-  </si>
-  <si>
-    <t>Philadelphia, PA 19121</t>
-  </si>
-  <si>
     <t>Mary Brown</t>
   </si>
   <si>
@@ -765,22 +759,46 @@
     <t xml:space="preserve">ID: </t>
   </si>
   <si>
+    <t>Current Tenant</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>PA 19121, 3602 Rocky Road</t>
+  </si>
+  <si>
+    <t>Rent: 1</t>
+  </si>
+  <si>
+    <t>Rent: Jan '2022</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>MOVE OUT 2/15/2022</t>
+  </si>
+  <si>
+    <t>Rent: 2 ' 2022</t>
+  </si>
+  <si>
     <t>Alex Zacco</t>
   </si>
   <si>
-    <t>Current Tenant</t>
+    <t>116 Trailing Oak</t>
   </si>
   <si>
-    <t>Cary</t>
+    <t>Cary, NC 27513</t>
   </si>
   <si>
-    <t>NC, 116 Trailing Oak</t>
+    <t>Nick</t>
   </si>
   <si>
-    <t>Income: 1</t>
+    <t>LAte on rent</t>
   </si>
   <si>
-    <t>Payment Recieved</t>
+    <t>Sparky</t>
   </si>
 </sst>
 </file>
@@ -972,7 +990,7 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1044,6 +1062,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,9 +1372,9 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Accent3" xfId="5" builtinId="37"/>
@@ -1717,10 +1741,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCA5FA3-B3EE-4EDE-86EB-AFA9F8027B84}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1732,41 +1756,45 @@
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" s="93" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="65"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="E2" s="94" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G2" s="87" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="92" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" thickBot="1">
+        <v>129</v>
+      </c>
+      <c r="K2" s="92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13.5" thickBot="1">
       <c r="D3" t="s">
         <v>109</v>
       </c>
@@ -1786,8 +1814,12 @@
         <v>82</v>
       </c>
       <c r="J3" s="91"/>
-    </row>
-    <row r="4" spans="1:10" ht="15">
+      <c r="K3" s="87" t="str" cm="1">
+        <f t="array" ref="K3">LOOKUP(2,1/(J:J&lt;&gt;""),J:J)</f>
+        <v>XXXX XXXXX</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15">
       <c r="A4">
         <f>COUNTIF(A6:A65539, "&lt;&gt;")</f>
         <v>1</v>
@@ -1809,7 +1841,7 @@
       </c>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
@@ -1839,7 +1871,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="18">
         <f t="shared" ref="A6" si="0">MONTH(D6)</f>
         <v>1</v>
@@ -1867,10 +1899,10 @@
         <v>2000</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="65"/>
@@ -1881,7 +1913,7 @@
       <c r="H7" s="64"/>
       <c r="I7" s="65"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="65"/>
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
@@ -1892,7 +1924,7 @@
       <c r="H8" s="64"/>
       <c r="I8" s="65"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="65"/>
       <c r="B9" s="65"/>
       <c r="C9" s="65"/>
@@ -1903,7 +1935,7 @@
       <c r="H9" s="64"/>
       <c r="I9" s="65"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -1914,7 +1946,7 @@
       <c r="H10" s="64"/>
       <c r="I10" s="65"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="65"/>
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>
@@ -1925,7 +1957,7 @@
       <c r="H11" s="64"/>
       <c r="I11" s="65"/>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:11" ht="15">
       <c r="A12" s="65"/>
       <c r="B12" s="65"/>
       <c r="C12" s="65"/>
@@ -1936,7 +1968,7 @@
       <c r="H12" s="64"/>
       <c r="I12" s="96"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="65"/>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>
@@ -1947,7 +1979,7 @@
       <c r="H13" s="64"/>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="65"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -1958,7 +1990,7 @@
       <c r="H14" s="64"/>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="65"/>
       <c r="B15" s="65"/>
       <c r="C15" s="65"/>
@@ -1969,7 +2001,7 @@
       <c r="H15" s="64"/>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="65"/>
       <c r="B16" s="65"/>
       <c r="C16" s="65"/>
@@ -1986,12 +2018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914380C8-C1D0-4A60-82DC-17615EEB8410}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC15E6DE-C176-45FE-A5EB-9CCCE6AD6F8C}">
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2003,21 +2034,21 @@
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1">
         <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" s="93" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -2025,20 +2056,20 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="E2" s="94" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G2" s="87" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="92" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K2" s="92" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" thickBot="1">
@@ -2049,44 +2080,44 @@
         <v>5</v>
       </c>
       <c r="F3" s="86">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="G3" s="88">
         <v>50</v>
       </c>
       <c r="H3" s="89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>82</v>
       </c>
       <c r="J3" s="91">
-        <v>12345</v>
+        <v>3421</v>
       </c>
       <c r="K3" s="87" t="str" cm="1">
         <f t="array" ref="K3">LOOKUP(2,1/(J:J&lt;&gt;""),J:J)</f>
-        <v>Alex Zacco</v>
+        <v>Sparky</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4">
-        <f>COUNTIF(A6:A65537, "&lt;&gt;")</f>
-        <v>1</v>
+        <f>COUNTIF(A6:A65538, "&lt;&gt;")</f>
+        <v>3</v>
       </c>
       <c r="D4" s="51">
-        <f>INDEX(D6:D65536, A4)</f>
-        <v>44620</v>
+        <f>INDEX(D6:D65537, A4)</f>
+        <v>0</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="50" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="50">
-        <f>INDEX(H6:H65538, A4)</f>
-        <v>2500</v>
+        <f>INDEX(H6:H65537, A4)</f>
+        <v>0</v>
       </c>
       <c r="I4" s="53">
-        <v>44732</v>
+        <v>44701</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -2123,7 +2154,7 @@
     <row r="6" spans="1:11">
       <c r="A6" s="18">
         <f t="shared" ref="A6" si="0">MONTH(D6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="18">
         <f t="shared" ref="B6" si="1">YEAR(D6)</f>
@@ -2134,74 +2165,111 @@
         <v/>
       </c>
       <c r="D6" s="19">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H6" s="21">
         <f>G6</f>
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="65" customFormat="1">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-    </row>
-    <row r="8" spans="1:11" s="65" customFormat="1">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="65">
+        <v>4</v>
+      </c>
+      <c r="B7" s="65">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="97">
+        <v>44666</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64">
+        <v>50</v>
+      </c>
+      <c r="H7" s="64">
+        <v>2050</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="98" customFormat="1">
       <c r="D8" s="99"/>
-      <c r="E8" s="98"/>
+      <c r="E8" s="98" t="s">
+        <v>141</v>
+      </c>
       <c r="F8" s="100"/>
       <c r="G8" s="100"/>
       <c r="H8" s="100"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-    </row>
-    <row r="9" spans="1:11" s="65" customFormat="1">
-      <c r="D9" s="97"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-    </row>
-    <row r="10" spans="1:11" ht="15">
+      <c r="J8" s="98" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="65">
+        <v>2</v>
+      </c>
+      <c r="B9" s="65">
+        <v>2022</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="97">
+        <v>44607</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="64">
+        <v>4000</v>
+      </c>
+      <c r="G9" s="64">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="64">
+        <v>0</v>
+      </c>
+      <c r="I9" s="65"/>
+      <c r="J9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
       <c r="D10" s="97"/>
       <c r="E10" s="65"/>
-      <c r="F10" s="95"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="64"/>
       <c r="H10" s="64"/>
-      <c r="I10" s="96"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" s="65"/>
+    </row>
+    <row r="11" spans="1:11" ht="15">
       <c r="A11" s="65"/>
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>
       <c r="D11" s="97"/>
       <c r="E11" s="65"/>
-      <c r="F11" s="64"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
+      <c r="I11" s="96"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="65"/>
@@ -2236,6 +2304,17 @@
       <c r="H14" s="64"/>
       <c r="I14" s="65"/>
     </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2244,14 +2323,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CECF697-24A8-4B97-93AC-BA9D5F0A1AD0}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:M298"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D212" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2:H3"/>
       <selection pane="topRight" activeCell="H2" sqref="H2:H3"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2:H3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2269,16 +2348,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1">
         <v>3602</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F1"/>
       <c r="G1" s="7"/>
@@ -2287,21 +2366,21 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="E2" s="6" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="87" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="92" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K2" s="92" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" thickBot="1">
@@ -2312,7 +2391,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="86">
-        <v>2225</v>
+        <v>2500</v>
       </c>
       <c r="G3" s="88">
         <v>25</v>
@@ -2326,17 +2405,17 @@
       <c r="J3" s="91"/>
       <c r="K3" s="87" t="str" cm="1">
         <f t="array" ref="K3">LOOKUP(2,1/(J:J&lt;&gt;""),J:J)</f>
-        <v>Mary Brown</v>
+        <v>Alex Zacco</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4">
         <f>COUNTIF(A6:A65537, "&lt;&gt;")</f>
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D4" s="51">
         <f>INDEX(D6:D65536, A4)</f>
-        <v>44519</v>
+        <v>0</v>
       </c>
       <c r="G4" s="50" t="s">
         <v>78</v>
@@ -2346,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="53">
-        <v>44269</v>
+        <v>44907</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -2407,7 +2486,7 @@
         <v>1695</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2463,6 +2542,7 @@
         <f t="shared" si="3"/>
         <v>3795</v>
       </c>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="18">
@@ -10347,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:10">
       <c r="A289" s="18">
         <f t="shared" si="17"/>
         <v>8</v>
@@ -10376,7 +10456,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:10">
       <c r="A290" s="18">
         <f t="shared" si="17"/>
         <v>1</v>
@@ -10401,7 +10481,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:10">
       <c r="A291" s="18">
         <f t="shared" si="17"/>
         <v>8</v>
@@ -10428,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:10">
       <c r="A292" s="18">
         <f t="shared" si="17"/>
         <v>9</v>
@@ -10457,7 +10537,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:10">
       <c r="A293" s="18">
         <f t="shared" si="17"/>
         <v>9</v>
@@ -10484,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:10">
       <c r="A294" s="18">
         <f t="shared" si="17"/>
         <v>10</v>
@@ -10513,7 +10593,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:10">
       <c r="A295" s="18">
         <f t="shared" si="17"/>
         <v>10</v>
@@ -10540,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:10">
       <c r="A296" s="18">
         <f t="shared" si="17"/>
         <v>11</v>
@@ -10569,7 +10649,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:10">
       <c r="A297" s="18">
         <f t="shared" si="17"/>
         <v>11</v>
@@ -10596,8 +10676,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
-      <c r="D298" s="19"/>
+    <row r="298" spans="1:10" s="98" customFormat="1">
+      <c r="D298" s="99"/>
+      <c r="E298" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="F298" s="100"/>
+      <c r="G298" s="100"/>
+      <c r="H298" s="100"/>
+      <c r="J298" s="98" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" s="65" customFormat="1">
+      <c r="A299" s="65">
+        <v>2</v>
+      </c>
+      <c r="B299" s="65">
+        <v>2022</v>
+      </c>
+      <c r="D299" s="97">
+        <v>44607</v>
+      </c>
+      <c r="E299" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="F299" s="64">
+        <v>1500</v>
+      </c>
+      <c r="G299" s="64">
+        <v>2500</v>
+      </c>
+      <c r="H299" s="64">
+        <v>1000</v>
+      </c>
+      <c r="J299" s="65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" s="65" customFormat="1">
+      <c r="F300" s="64"/>
+      <c r="G300" s="64"/>
+      <c r="H300" s="64"/>
+    </row>
+    <row r="301" spans="1:10">
+      <c r="D301" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10610,14 +10733,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33284B1-1685-4DC7-9195-3505862282B2}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N190"/>
+  <dimension ref="A1:N189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F254" sqref="F254"/>
       <selection pane="topRight" activeCell="F254" sqref="F254"/>
       <selection pane="bottomLeft" activeCell="F254" sqref="F254"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10638,13 +10761,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1">
         <v>4398</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
         <v>111</v>
@@ -10664,10 +10787,15 @@
         <v>60</v>
       </c>
       <c r="H2" s="88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="J2" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="92" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" thickBot="1">
       <c r="D3" t="s">
@@ -10688,37 +10816,33 @@
       <c r="I3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="92" t="s">
-        <v>138</v>
+      <c r="J3" s="91"/>
+      <c r="K3" s="87" t="str" cm="1">
+        <f t="array" ref="K3">LOOKUP(2,1/(J:J&lt;&gt;""),J:J)</f>
+        <v>Fred L. Carroll</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4">
-        <f>COUNTIF(A6:A65539, "&lt;&gt;")</f>
+        <f>COUNTIF(A6:A65537, "&lt;&gt;")</f>
         <v>181</v>
       </c>
       <c r="D4" s="51" t="str">
-        <f>INDEX(D6:D65538, A4)</f>
+        <f>INDEX(D6:D65536, A4)</f>
         <v>11/8/2021</v>
       </c>
       <c r="G4" s="50" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="50">
-        <f>INDEX(H6:H65538, A4)</f>
+        <f>INDEX(H6:H65536, A4)</f>
         <v>4950</v>
       </c>
       <c r="I4" s="53">
         <v>44234</v>
       </c>
       <c r="J4" s="91"/>
-      <c r="K4" s="87" t="str" cm="1">
-        <f t="array" ref="K4">LOOKUP(2,1/(J:J&lt;&gt;""),J:J)</f>
-        <v>Fred L. Carroll</v>
-      </c>
+      <c r="K4" s="87"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" thickBot="1">
       <c r="A5" s="18" t="s">
@@ -16163,9 +16287,6 @@
       </c>
       <c r="I189" s="29"/>
       <c r="J189" s="29"/>
-    </row>
-    <row r="190" spans="1:10">
-      <c r="D190" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16178,14 +16299,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B01394-2B34-4C63-9D9F-A3291D6CE48F}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:K223"/>
+  <dimension ref="A1:K224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F254" sqref="F254"/>
       <selection pane="topRight" activeCell="F254" sqref="F254"/>
       <selection pane="bottomLeft" activeCell="F254" sqref="F254"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16198,22 +16319,22 @@
     <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1">
         <v>4897</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F1"/>
       <c r="G1" s="7"/>
@@ -16222,16 +16343,22 @@
     </row>
     <row r="2" spans="1:11" ht="13.5" thickBot="1">
       <c r="E2" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="87" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I2" s="65"/>
+      <c r="J2" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="92" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" thickBot="1">
       <c r="D3" t="s">
@@ -16252,41 +16379,37 @@
       <c r="I3" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="92" t="s">
-        <v>138</v>
+      <c r="J3" s="91"/>
+      <c r="K3" s="87" t="str" cm="1">
+        <f t="array" ref="K3">LOOKUP(2,1/(J:J&lt;&gt;""),J:J)</f>
+        <v>Janine Reyes</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4">
         <f>COUNTIF(A6:A65392, "&lt;&gt;")</f>
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B4">
         <f>MAX(B6:B852)</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D4" s="51">
         <f>INDEX(D6:D65391, A4)</f>
-        <v>44531</v>
+        <v>44576</v>
       </c>
       <c r="G4" s="50" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="50">
         <f>INDEX(H6:H65391, A4)</f>
-        <v>0</v>
+        <v>1637</v>
       </c>
       <c r="I4" s="54">
         <v>44286</v>
       </c>
       <c r="J4" s="91"/>
-      <c r="K4" s="87" t="str" cm="1">
-        <f t="array" ref="K4">LOOKUP(2,1/(J:J&lt;&gt;""),J:J)</f>
-        <v>Janine Reyes</v>
-      </c>
+      <c r="K4" s="87"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="18" t="s">
@@ -16347,7 +16470,7 @@
         <v>2500</v>
       </c>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -16378,7 +16501,7 @@
       </c>
       <c r="I7" s="61"/>
       <c r="J7" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -22099,7 +22222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:9">
       <c r="A209" s="40">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -22128,7 +22251,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:9">
       <c r="A210" s="40">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -22155,7 +22278,7 @@
         <v>1637.5</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:9">
       <c r="A211" s="40">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -22182,7 +22305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:9">
       <c r="A212" s="40">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -22211,7 +22334,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:9">
       <c r="A213" s="40">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -22238,7 +22361,7 @@
         <v>1637.5</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:9">
       <c r="A214" s="40">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -22265,7 +22388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:9">
       <c r="A215" s="40">
         <f t="shared" si="13"/>
         <v>10</v>
@@ -22294,7 +22417,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:9">
       <c r="A216" s="40">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -22321,7 +22444,7 @@
         <v>1637.5</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:9">
       <c r="A217" s="40">
         <f t="shared" si="13"/>
         <v>10</v>
@@ -22348,7 +22471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:9">
       <c r="A218" s="40">
         <f t="shared" si="13"/>
         <v>11</v>
@@ -22377,7 +22500,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:9">
       <c r="A219" s="40">
         <f t="shared" si="13"/>
         <v>11</v>
@@ -22404,7 +22527,7 @@
         <v>1637.5</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:9">
       <c r="A220" s="40">
         <f t="shared" si="13"/>
         <v>11</v>
@@ -22431,7 +22554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:9">
       <c r="A221" s="40">
         <f t="shared" si="13"/>
         <v>12</v>
@@ -22460,7 +22583,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:9">
       <c r="A222" s="40">
         <f t="shared" si="13"/>
         <v>11</v>
@@ -22487,7 +22610,7 @@
         <v>1637.5</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:9">
       <c r="A223" s="40">
         <f t="shared" si="13"/>
         <v>12</v>
@@ -22512,6 +22635,32 @@
       <c r="H223" s="42">
         <f t="shared" si="16"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224">
+        <v>2022</v>
+      </c>
+      <c r="C224" t="s">
+        <v>138</v>
+      </c>
+      <c r="D224" s="19">
+        <v>44576</v>
+      </c>
+      <c r="E224" t="s">
+        <v>139</v>
+      </c>
+      <c r="G224" s="1">
+        <v>1637</v>
+      </c>
+      <c r="H224" s="1">
+        <v>1637</v>
+      </c>
+      <c r="I224" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -22525,14 +22674,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A177691-3EE4-42F2-A9A1-4235D87068B5}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F254" sqref="F254"/>
       <selection pane="topRight" activeCell="F254" sqref="F254"/>
       <selection pane="bottomLeft" activeCell="F254" sqref="F254"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -22552,16 +22701,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1">
         <v>3386</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F1"/>
       <c r="G1" s="7"/>
@@ -22570,17 +22719,22 @@
     </row>
     <row r="2" spans="1:11" ht="13.5" thickBot="1">
       <c r="E2" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="87" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I2" s="65"/>
-      <c r="J2" s="29"/>
+      <c r="J2" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="92" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" thickBot="1">
       <c r="D3" t="s">
@@ -22601,37 +22755,33 @@
       <c r="I3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="92" t="s">
-        <v>138</v>
+      <c r="J3" s="91"/>
+      <c r="K3" s="87" t="str" cm="1">
+        <f t="array" ref="K3">LOOKUP(2,1/(J:J&lt;&gt;""),J:J)</f>
+        <v>Beclu Ferguson</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4">
-        <f>COUNTIF(A6:A65539, "&lt;&gt;")+1</f>
-        <v>110</v>
+        <f>COUNTIF(A6:A65536, "&lt;&gt;")+1</f>
+        <v>108</v>
       </c>
       <c r="D4" s="51">
-        <f>INDEX(D6:D65538, A4)</f>
-        <v>44620</v>
+        <f>INDEX(D6:D65535, A4)</f>
+        <v>44533</v>
       </c>
       <c r="G4" s="50" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="50">
-        <f>INDEX(H6:H65538, A4)</f>
-        <v>-2700</v>
+        <f>INDEX(H6:H65535, A4)</f>
+        <v>1200</v>
       </c>
       <c r="I4" s="54">
         <v>44621</v>
       </c>
       <c r="J4" s="91"/>
-      <c r="K4" s="87" t="str" cm="1">
-        <f t="array" ref="K4">LOOKUP(2,1/(J:J&lt;&gt;""),J:J)</f>
-        <v>Beclu Ferguson</v>
-      </c>
+      <c r="K4" s="87"/>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1">
       <c r="A5" s="9" t="s">
@@ -22718,7 +22868,7 @@
         <v>3200</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K7" s="13"/>
     </row>
@@ -23782,7 +23932,7 @@
       </c>
       <c r="I43" s="29"/>
       <c r="J43" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -23815,7 +23965,7 @@
         <v>83</v>
       </c>
       <c r="J44" s="52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15">
@@ -23845,7 +23995,7 @@
         <v>5400</v>
       </c>
       <c r="J45" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -23878,7 +24028,7 @@
         <v>97</v>
       </c>
       <c r="J46" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -23911,7 +24061,7 @@
         <v>98</v>
       </c>
       <c r="J47" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -25853,52 +26003,6 @@
       <c r="H114" s="21">
         <f t="shared" ref="H114" si="45">H113+G114-F114</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115">
-        <v>2</v>
-      </c>
-      <c r="B115">
-        <v>2022</v>
-      </c>
-      <c r="C115" t="s">
-        <v>141</v>
-      </c>
-      <c r="D115" s="19">
-        <v>44620</v>
-      </c>
-      <c r="E115" t="s">
-        <v>142</v>
-      </c>
-      <c r="F115" s="1">
-        <v>2700</v>
-      </c>
-      <c r="H115" s="1">
-        <v>-2700</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116">
-        <v>2</v>
-      </c>
-      <c r="B116">
-        <v>2022</v>
-      </c>
-      <c r="C116" t="s">
-        <v>141</v>
-      </c>
-      <c r="D116" s="19">
-        <v>44620</v>
-      </c>
-      <c r="E116" t="s">
-        <v>20</v>
-      </c>
-      <c r="F116" s="1">
-        <v>2700</v>
-      </c>
-      <c r="H116" s="1">
-        <v>-5400</v>
       </c>
     </row>
   </sheetData>
